--- a/WJPROLI2019_0-24-31 (1)-páginas-4-5,7-convertido.xlsx
+++ b/WJPROLI2019_0-24-31 (1)-páginas-4-5,7-convertido.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
   <si>
     <r>
       <rPr>
@@ -1730,10 +1730,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I43"/>
+  <dimension ref="A1:C127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I44" sqref="I44"/>
+    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1741,15 +1741,9 @@
     <col min="1" max="1" width="18.6640625" customWidth="1"/>
     <col min="2" max="2" width="9.33203125" customWidth="1"/>
     <col min="3" max="3" width="7.6640625" customWidth="1"/>
-    <col min="4" max="4" width="19.33203125" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" customWidth="1"/>
-    <col min="6" max="6" width="7.1640625" customWidth="1"/>
-    <col min="7" max="7" width="19.1640625" customWidth="1"/>
-    <col min="8" max="8" width="8.83203125" customWidth="1"/>
-    <col min="9" max="9" width="6.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1759,26 +1753,8 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
@@ -1788,26 +1764,8 @@
       <c r="C2" s="6">
         <v>1</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="5">
-        <v>0.64</v>
-      </c>
-      <c r="F2" s="6">
-        <v>43</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="5">
-        <v>0.49</v>
-      </c>
-      <c r="I2" s="7">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>6</v>
       </c>
@@ -1817,26 +1775,8 @@
       <c r="C3" s="10">
         <v>2</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="9">
-        <v>0.63</v>
-      </c>
-      <c r="F3" s="10">
-        <v>44</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="9">
-        <v>0.49</v>
-      </c>
-      <c r="I3" s="11">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
         <v>9</v>
       </c>
@@ -1846,26 +1786,8 @@
       <c r="C4" s="14">
         <v>3</v>
       </c>
-      <c r="D4" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="13">
-        <v>0.63</v>
-      </c>
-      <c r="F4" s="14">
-        <v>45</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="13">
-        <v>0.49</v>
-      </c>
-      <c r="I4" s="15">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>12</v>
       </c>
@@ -1875,26 +1797,8 @@
       <c r="C5" s="10">
         <v>4</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="9">
-        <v>0.63</v>
-      </c>
-      <c r="F5" s="10">
-        <v>46</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="9">
-        <v>0.49</v>
-      </c>
-      <c r="I5" s="11">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
         <v>15</v>
       </c>
@@ -1904,26 +1808,8 @@
       <c r="C6" s="14">
         <v>5</v>
       </c>
-      <c r="D6" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="13">
-        <v>0.62</v>
-      </c>
-      <c r="F6" s="14">
-        <v>47</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" s="13">
-        <v>0.48</v>
-      </c>
-      <c r="I6" s="15">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>18</v>
       </c>
@@ -1933,26 +1819,8 @@
       <c r="C7" s="10">
         <v>6</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="9">
-        <v>0.62</v>
-      </c>
-      <c r="F7" s="10">
-        <v>48</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="9">
-        <v>0.48</v>
-      </c>
-      <c r="I7" s="11">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
         <v>21</v>
       </c>
@@ -1962,26 +1830,8 @@
       <c r="C8" s="14">
         <v>7</v>
       </c>
-      <c r="D8" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="13">
-        <v>0.61</v>
-      </c>
-      <c r="F8" s="14">
-        <v>49</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" s="13">
-        <v>0.48</v>
-      </c>
-      <c r="I8" s="15">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>24</v>
       </c>
@@ -1991,26 +1841,8 @@
       <c r="C9" s="10">
         <v>8</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="9">
-        <v>0.61</v>
-      </c>
-      <c r="F9" s="10">
-        <v>50</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" s="9">
-        <v>0.47</v>
-      </c>
-      <c r="I9" s="11">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
         <v>27</v>
       </c>
@@ -2020,26 +1852,8 @@
       <c r="C10" s="14">
         <v>9</v>
       </c>
-      <c r="D10" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="13">
-        <v>0.6</v>
-      </c>
-      <c r="F10" s="14">
-        <v>51</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="H10" s="13">
-        <v>0.47</v>
-      </c>
-      <c r="I10" s="15">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>30</v>
       </c>
@@ -2049,26 +1863,8 @@
       <c r="C11" s="10">
         <v>10</v>
       </c>
-      <c r="D11" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="9">
-        <v>0.6</v>
-      </c>
-      <c r="F11" s="10">
-        <v>52</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H11" s="9">
-        <v>0.47</v>
-      </c>
-      <c r="I11" s="11">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
         <v>33</v>
       </c>
@@ -2078,26 +1874,8 @@
       <c r="C12" s="14">
         <v>11</v>
       </c>
-      <c r="D12" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="13">
-        <v>0.59</v>
-      </c>
-      <c r="F12" s="14">
-        <v>53</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="H12" s="13">
-        <v>0.46</v>
-      </c>
-      <c r="I12" s="15">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>36</v>
       </c>
@@ -2107,26 +1885,8 @@
       <c r="C13" s="10">
         <v>12</v>
       </c>
-      <c r="D13" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="9">
-        <v>0.59</v>
-      </c>
-      <c r="F13" s="10">
-        <v>54</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="H13" s="9">
-        <v>0.46</v>
-      </c>
-      <c r="I13" s="11">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
         <v>39</v>
       </c>
@@ -2136,26 +1896,8 @@
       <c r="C14" s="14">
         <v>13</v>
       </c>
-      <c r="D14" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E14" s="13">
-        <v>0.59</v>
-      </c>
-      <c r="F14" s="14">
-        <v>55</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H14" s="13">
-        <v>0.46</v>
-      </c>
-      <c r="I14" s="15">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>42</v>
       </c>
@@ -2165,26 +1907,8 @@
       <c r="C15" s="10">
         <v>14</v>
       </c>
-      <c r="D15" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E15" s="9">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="F15" s="10">
-        <v>56</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="H15" s="9">
-        <v>0.46</v>
-      </c>
-      <c r="I15" s="11">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
         <v>45</v>
       </c>
@@ -2194,26 +1918,8 @@
       <c r="C16" s="14">
         <v>15</v>
       </c>
-      <c r="D16" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E16" s="13">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="F16" s="14">
-        <v>57</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="H16" s="13">
-        <v>0.46</v>
-      </c>
-      <c r="I16" s="15">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>48</v>
       </c>
@@ -2223,26 +1929,8 @@
       <c r="C17" s="10">
         <v>16</v>
       </c>
-      <c r="D17" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E17" s="9">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="F17" s="10">
-        <v>58</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="H17" s="9">
-        <v>0.46</v>
-      </c>
-      <c r="I17" s="11">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="12" t="s">
         <v>51</v>
       </c>
@@ -2252,26 +1940,8 @@
       <c r="C18" s="14">
         <v>17</v>
       </c>
-      <c r="D18" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="E18" s="13">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="F18" s="14">
-        <v>59</v>
-      </c>
-      <c r="G18" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="H18" s="13">
-        <v>0.46</v>
-      </c>
-      <c r="I18" s="15">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
         <v>54</v>
       </c>
@@ -2281,26 +1951,8 @@
       <c r="C19" s="10">
         <v>18</v>
       </c>
-      <c r="D19" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E19" s="9">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="F19" s="10">
-        <v>60</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="H19" s="9">
-        <v>0.45</v>
-      </c>
-      <c r="I19" s="11">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="12" t="s">
         <v>57</v>
       </c>
@@ -2310,26 +1962,8 @@
       <c r="C20" s="14">
         <v>19</v>
       </c>
-      <c r="D20" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="E20" s="13">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="F20" s="14">
-        <v>61</v>
-      </c>
-      <c r="G20" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="H20" s="13">
-        <v>0.45</v>
-      </c>
-      <c r="I20" s="15">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
         <v>60</v>
       </c>
@@ -2339,26 +1973,8 @@
       <c r="C21" s="10">
         <v>20</v>
       </c>
-      <c r="D21" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="E21" s="9">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="F21" s="10">
-        <v>62</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="H21" s="9">
-        <v>0.45</v>
-      </c>
-      <c r="I21" s="11">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
         <v>63</v>
       </c>
@@ -2368,26 +1984,8 @@
       <c r="C22" s="14">
         <v>21</v>
       </c>
-      <c r="D22" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="E22" s="13">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="F22" s="14">
-        <v>63</v>
-      </c>
-      <c r="G22" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="H22" s="13">
-        <v>0.42</v>
-      </c>
-      <c r="I22" s="15">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
         <v>66</v>
       </c>
@@ -2397,26 +1995,8 @@
       <c r="C23" s="10">
         <v>22</v>
       </c>
-      <c r="D23" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="E23" s="9">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="F23" s="10">
-        <v>64</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="H23" s="9">
-        <v>0.42</v>
-      </c>
-      <c r="I23" s="11">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="12" t="s">
         <v>69</v>
       </c>
@@ -2426,26 +2006,8 @@
       <c r="C24" s="14">
         <v>23</v>
       </c>
-      <c r="D24" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="E24" s="13">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="F24" s="14">
-        <v>65</v>
-      </c>
-      <c r="G24" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="H24" s="13">
-        <v>0.41</v>
-      </c>
-      <c r="I24" s="15">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
         <v>72</v>
       </c>
@@ -2455,26 +2017,8 @@
       <c r="C25" s="10">
         <v>24</v>
       </c>
-      <c r="D25" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="E25" s="9">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="F25" s="10">
-        <v>66</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="H25" s="9">
-        <v>0.4</v>
-      </c>
-      <c r="I25" s="11">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="12" t="s">
         <v>75</v>
       </c>
@@ -2484,26 +2028,8 @@
       <c r="C26" s="14">
         <v>25</v>
       </c>
-      <c r="D26" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="E26" s="13">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="F26" s="14">
-        <v>67</v>
-      </c>
-      <c r="G26" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="H26" s="13">
-        <v>0.39</v>
-      </c>
-      <c r="I26" s="15">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="17" t="s">
         <v>78</v>
       </c>
@@ -2513,26 +2039,8 @@
       <c r="C27" s="10">
         <v>26</v>
       </c>
-      <c r="D27" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="E27" s="9">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="F27" s="10">
-        <v>68</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="H27" s="9">
-        <v>0.39</v>
-      </c>
-      <c r="I27" s="11">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
         <v>81</v>
       </c>
@@ -2542,26 +2050,8 @@
       <c r="C28" s="14">
         <v>27</v>
       </c>
-      <c r="D28" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="E28" s="13">
-        <v>0.54</v>
-      </c>
-      <c r="F28" s="14">
-        <v>69</v>
-      </c>
-      <c r="G28" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="H28" s="13">
-        <v>0.39</v>
-      </c>
-      <c r="I28" s="15">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="17" t="s">
         <v>84</v>
       </c>
@@ -2571,26 +2061,8 @@
       <c r="C29" s="10">
         <v>28</v>
       </c>
-      <c r="D29" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E29" s="9">
-        <v>0.54</v>
-      </c>
-      <c r="F29" s="10">
-        <v>70</v>
-      </c>
-      <c r="G29" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="H29" s="9">
-        <v>0.39</v>
-      </c>
-      <c r="I29" s="11">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="12" t="s">
         <v>87</v>
       </c>
@@ -2600,26 +2072,8 @@
       <c r="C30" s="14">
         <v>29</v>
       </c>
-      <c r="D30" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="E30" s="13">
-        <v>0.54</v>
-      </c>
-      <c r="F30" s="14">
-        <v>71</v>
-      </c>
-      <c r="G30" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="H30" s="13">
-        <v>0.38</v>
-      </c>
-      <c r="I30" s="15">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
         <v>90</v>
       </c>
@@ -2629,26 +2083,8 @@
       <c r="C31" s="10">
         <v>30</v>
       </c>
-      <c r="D31" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="E31" s="9">
-        <v>0.54</v>
-      </c>
-      <c r="F31" s="10">
-        <v>72</v>
-      </c>
-      <c r="G31" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="H31" s="9">
-        <v>0.38</v>
-      </c>
-      <c r="I31" s="11">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="16" t="s">
         <v>93</v>
       </c>
@@ -2658,26 +2094,8 @@
       <c r="C32" s="14">
         <v>31</v>
       </c>
-      <c r="D32" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="E32" s="13">
-        <v>0.54</v>
-      </c>
-      <c r="F32" s="14">
-        <v>73</v>
-      </c>
-      <c r="G32" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="H32" s="13">
-        <v>0.38</v>
-      </c>
-      <c r="I32" s="15">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>96</v>
       </c>
@@ -2687,26 +2105,8 @@
       <c r="C33">
         <v>32</v>
       </c>
-      <c r="D33" t="s">
-        <v>107</v>
-      </c>
-      <c r="E33">
-        <v>0.53</v>
-      </c>
-      <c r="F33">
-        <v>74</v>
-      </c>
-      <c r="G33" t="s">
-        <v>118</v>
-      </c>
-      <c r="H33">
-        <v>0.37</v>
-      </c>
-      <c r="I33">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>97</v>
       </c>
@@ -2716,26 +2116,8 @@
       <c r="C34">
         <v>33</v>
       </c>
-      <c r="D34" t="s">
-        <v>108</v>
-      </c>
-      <c r="E34">
-        <v>0.53</v>
-      </c>
-      <c r="F34">
-        <v>75</v>
-      </c>
-      <c r="G34" t="s">
-        <v>119</v>
-      </c>
-      <c r="H34">
-        <v>0.35</v>
-      </c>
-      <c r="I34">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>98</v>
       </c>
@@ -2745,26 +2127,8 @@
       <c r="C35">
         <v>34</v>
       </c>
-      <c r="D35" t="s">
-        <v>109</v>
-      </c>
-      <c r="E35">
-        <v>0.52</v>
-      </c>
-      <c r="F35">
-        <v>76</v>
-      </c>
-      <c r="G35" t="s">
-        <v>120</v>
-      </c>
-      <c r="H35">
-        <v>0.35</v>
-      </c>
-      <c r="I35">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>99</v>
       </c>
@@ -2774,26 +2138,8 @@
       <c r="C36">
         <v>35</v>
       </c>
-      <c r="D36" t="s">
-        <v>110</v>
-      </c>
-      <c r="E36">
-        <v>0.52</v>
-      </c>
-      <c r="F36">
-        <v>77</v>
-      </c>
-      <c r="G36" t="s">
-        <v>121</v>
-      </c>
-      <c r="H36">
-        <v>0.33</v>
-      </c>
-      <c r="I36">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>100</v>
       </c>
@@ -2803,26 +2149,8 @@
       <c r="C37">
         <v>36</v>
       </c>
-      <c r="D37" t="s">
-        <v>111</v>
-      </c>
-      <c r="E37">
-        <v>0.52</v>
-      </c>
-      <c r="F37">
-        <v>78</v>
-      </c>
-      <c r="G37" t="s">
-        <v>122</v>
-      </c>
-      <c r="H37">
-        <v>0.33</v>
-      </c>
-      <c r="I37">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>101</v>
       </c>
@@ -2832,26 +2160,8 @@
       <c r="C38">
         <v>37</v>
       </c>
-      <c r="D38" t="s">
-        <v>112</v>
-      </c>
-      <c r="E38">
-        <v>0.52</v>
-      </c>
-      <c r="F38">
-        <v>79</v>
-      </c>
-      <c r="G38" t="s">
-        <v>123</v>
-      </c>
-      <c r="H38">
-        <v>0.32</v>
-      </c>
-      <c r="I38">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>102</v>
       </c>
@@ -2861,26 +2171,8 @@
       <c r="C39">
         <v>38</v>
       </c>
-      <c r="D39" t="s">
-        <v>113</v>
-      </c>
-      <c r="E39">
-        <v>0.52</v>
-      </c>
-      <c r="F39">
-        <v>80</v>
-      </c>
-      <c r="G39" t="s">
-        <v>124</v>
-      </c>
-      <c r="H39">
-        <v>0.32</v>
-      </c>
-      <c r="I39">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>103</v>
       </c>
@@ -2890,26 +2182,8 @@
       <c r="C40">
         <v>39</v>
       </c>
-      <c r="D40" t="s">
-        <v>114</v>
-      </c>
-      <c r="E40">
-        <v>0.52</v>
-      </c>
-      <c r="F40">
-        <v>81</v>
-      </c>
-      <c r="G40" t="s">
-        <v>125</v>
-      </c>
-      <c r="H40">
-        <v>0.31</v>
-      </c>
-      <c r="I40">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>104</v>
       </c>
@@ -2919,26 +2193,8 @@
       <c r="C41">
         <v>40</v>
       </c>
-      <c r="D41" t="s">
-        <v>115</v>
-      </c>
-      <c r="E41">
-        <v>0.52</v>
-      </c>
-      <c r="F41">
-        <v>82</v>
-      </c>
-      <c r="G41" t="s">
-        <v>126</v>
-      </c>
-      <c r="H41">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="I41">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>105</v>
       </c>
@@ -2948,26 +2204,8 @@
       <c r="C42">
         <v>41</v>
       </c>
-      <c r="D42" t="s">
-        <v>116</v>
-      </c>
-      <c r="E42">
-        <v>0.49</v>
-      </c>
-      <c r="F42">
-        <v>83</v>
-      </c>
-      <c r="G42" t="s">
-        <v>127</v>
-      </c>
-      <c r="H42">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="I42">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>106</v>
       </c>
@@ -2977,22 +2215,928 @@
       <c r="C43">
         <v>42</v>
       </c>
-      <c r="D43" t="s">
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44" s="5">
+        <v>0.64</v>
+      </c>
+      <c r="C44" s="6">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45" s="9">
+        <v>0.63</v>
+      </c>
+      <c r="C45" s="10">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46" s="13">
+        <v>0.63</v>
+      </c>
+      <c r="C46" s="14">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B47" s="9">
+        <v>0.63</v>
+      </c>
+      <c r="C47" s="10">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B48" s="13">
+        <v>0.62</v>
+      </c>
+      <c r="C48" s="14">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B49" s="9">
+        <v>0.62</v>
+      </c>
+      <c r="C49" s="10">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B50" s="13">
+        <v>0.61</v>
+      </c>
+      <c r="C50" s="14">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B51" s="9">
+        <v>0.61</v>
+      </c>
+      <c r="C51" s="10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B52" s="13">
+        <v>0.6</v>
+      </c>
+      <c r="C52" s="14">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B53" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="C53" s="10">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A54" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B54" s="13">
+        <v>0.59</v>
+      </c>
+      <c r="C54" s="14">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B55" s="9">
+        <v>0.59</v>
+      </c>
+      <c r="C55" s="10">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B56" s="13">
+        <v>0.59</v>
+      </c>
+      <c r="C56" s="14">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B57" s="9">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="C57" s="10">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B58" s="13">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="C58" s="14">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B59" s="9">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="C59" s="10">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B60" s="13">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="C60" s="14">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B61" s="9">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="C61" s="10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B62" s="13">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="C62" s="14">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B63" s="9">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="C63" s="10">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B64" s="13">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="C64" s="14">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B65" s="9">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="C65" s="10">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B66" s="13">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="C66" s="14">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B67" s="9">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C67" s="10">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B68" s="13">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C68" s="14">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B69" s="9">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C69" s="10">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B70" s="13">
+        <v>0.54</v>
+      </c>
+      <c r="C70" s="14">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B71" s="9">
+        <v>0.54</v>
+      </c>
+      <c r="C71" s="10">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="B72" s="13">
+        <v>0.54</v>
+      </c>
+      <c r="C72" s="14">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B73" s="9">
+        <v>0.54</v>
+      </c>
+      <c r="C73" s="10">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B74" s="13">
+        <v>0.54</v>
+      </c>
+      <c r="C74" s="14">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>107</v>
+      </c>
+      <c r="B75">
+        <v>0.53</v>
+      </c>
+      <c r="C75">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>108</v>
+      </c>
+      <c r="B76">
+        <v>0.53</v>
+      </c>
+      <c r="C76">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>109</v>
+      </c>
+      <c r="B77">
+        <v>0.52</v>
+      </c>
+      <c r="C77">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>110</v>
+      </c>
+      <c r="B78">
+        <v>0.52</v>
+      </c>
+      <c r="C78">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>111</v>
+      </c>
+      <c r="B79">
+        <v>0.52</v>
+      </c>
+      <c r="C79">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>112</v>
+      </c>
+      <c r="B80">
+        <v>0.52</v>
+      </c>
+      <c r="C80">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>113</v>
+      </c>
+      <c r="B81">
+        <v>0.52</v>
+      </c>
+      <c r="C81">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>114</v>
+      </c>
+      <c r="B82">
+        <v>0.52</v>
+      </c>
+      <c r="C82">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>115</v>
+      </c>
+      <c r="B83">
+        <v>0.52</v>
+      </c>
+      <c r="C83">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>116</v>
+      </c>
+      <c r="B84">
+        <v>0.49</v>
+      </c>
+      <c r="C84">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
         <v>117</v>
       </c>
-      <c r="E43">
+      <c r="B85">
         <v>0.49</v>
       </c>
-      <c r="F43">
+      <c r="C85">
         <v>84</v>
       </c>
-      <c r="G43" t="s">
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" s="5">
+        <v>0.49</v>
+      </c>
+      <c r="C86" s="7">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B87" s="9">
+        <v>0.49</v>
+      </c>
+      <c r="C87" s="11">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B88" s="13">
+        <v>0.49</v>
+      </c>
+      <c r="C88" s="15">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B89" s="9">
+        <v>0.49</v>
+      </c>
+      <c r="C89" s="11">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B90" s="13">
+        <v>0.48</v>
+      </c>
+      <c r="C90" s="15">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B91" s="9">
+        <v>0.48</v>
+      </c>
+      <c r="C91" s="11">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B92" s="13">
+        <v>0.48</v>
+      </c>
+      <c r="C92" s="15">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B93" s="9">
+        <v>0.47</v>
+      </c>
+      <c r="C93" s="11">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B94" s="13">
+        <v>0.47</v>
+      </c>
+      <c r="C94" s="15">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B95" s="9">
+        <v>0.47</v>
+      </c>
+      <c r="C95" s="11">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B96" s="13">
+        <v>0.46</v>
+      </c>
+      <c r="C96" s="15">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B97" s="9">
+        <v>0.46</v>
+      </c>
+      <c r="C97" s="11">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B98" s="13">
+        <v>0.46</v>
+      </c>
+      <c r="C98" s="15">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A99" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B99" s="9">
+        <v>0.46</v>
+      </c>
+      <c r="C99" s="11">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B100" s="13">
+        <v>0.46</v>
+      </c>
+      <c r="C100" s="15">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B101" s="9">
+        <v>0.46</v>
+      </c>
+      <c r="C101" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B102" s="13">
+        <v>0.46</v>
+      </c>
+      <c r="C102" s="15">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B103" s="9">
+        <v>0.45</v>
+      </c>
+      <c r="C103" s="11">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B104" s="13">
+        <v>0.45</v>
+      </c>
+      <c r="C104" s="15">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B105" s="9">
+        <v>0.45</v>
+      </c>
+      <c r="C105" s="11">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B106" s="13">
+        <v>0.42</v>
+      </c>
+      <c r="C106" s="15">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B107" s="9">
+        <v>0.42</v>
+      </c>
+      <c r="C107" s="11">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B108" s="13">
+        <v>0.41</v>
+      </c>
+      <c r="C108" s="15">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B109" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="C109" s="11">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B110" s="13">
+        <v>0.39</v>
+      </c>
+      <c r="C110" s="15">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B111" s="9">
+        <v>0.39</v>
+      </c>
+      <c r="C111" s="11">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B112" s="13">
+        <v>0.39</v>
+      </c>
+      <c r="C112" s="15">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B113" s="9">
+        <v>0.39</v>
+      </c>
+      <c r="C113" s="11">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B114" s="13">
+        <v>0.38</v>
+      </c>
+      <c r="C114" s="15">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B115" s="9">
+        <v>0.38</v>
+      </c>
+      <c r="C115" s="11">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="B116" s="13">
+        <v>0.38</v>
+      </c>
+      <c r="C116" s="15">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>118</v>
+      </c>
+      <c r="B117">
+        <v>0.37</v>
+      </c>
+      <c r="C117">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>119</v>
+      </c>
+      <c r="B118">
+        <v>0.35</v>
+      </c>
+      <c r="C118">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>120</v>
+      </c>
+      <c r="B119">
+        <v>0.35</v>
+      </c>
+      <c r="C119">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>121</v>
+      </c>
+      <c r="B120">
+        <v>0.33</v>
+      </c>
+      <c r="C120">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>122</v>
+      </c>
+      <c r="B121">
+        <v>0.33</v>
+      </c>
+      <c r="C121">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>123</v>
+      </c>
+      <c r="B122">
+        <v>0.32</v>
+      </c>
+      <c r="C122">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>124</v>
+      </c>
+      <c r="B123">
+        <v>0.32</v>
+      </c>
+      <c r="C123">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>125</v>
+      </c>
+      <c r="B124">
+        <v>0.31</v>
+      </c>
+      <c r="C124">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>126</v>
+      </c>
+      <c r="B125">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="C125">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>127</v>
+      </c>
+      <c r="B126">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="C126">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
         <v>128</v>
       </c>
-      <c r="H43">
+      <c r="B127">
         <v>0.25</v>
       </c>
-      <c r="I43">
+      <c r="C127">
         <v>126</v>
       </c>
     </row>
